--- a/Báo cáo/Bảng phân chia công việc.xlsx
+++ b/Báo cáo/Bảng phân chia công việc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project01-Group01\Báo cáo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A95276-EDDB-4D7E-BF8F-88E6290F19E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02CAEAB-7585-4549-A96B-BA899E01262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1107D468-E569-42C3-83E7-9DEB19704F6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Project01 - group01</t>
   </si>
@@ -89,10 +89,25 @@
     <t>Bản đặc tả chức năng</t>
   </si>
   <si>
-    <t>Biên bản cuộc họp 01(Trong thư mục /Biên bản cuộc họp)</t>
-  </si>
-  <si>
-    <t>Biên bản cuộc họp 02(Trong thư mục /Biên bản cuộc họp)</t>
+    <t>Bản dặc tả yêu cầu</t>
+  </si>
+  <si>
+    <t>Yêu cầu</t>
+  </si>
+  <si>
+    <t>web admin</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>web user</t>
+  </si>
+  <si>
+    <t>Gồm trang chủ hiển thị thông tin shop, danh mục mua sắm, chi tiết sản phẩm, giỏ hàng, trang thanh toán, lịch sử mua hàng, trang đăng nhập đăng ký</t>
+  </si>
+  <si>
+    <t>Gồm các chức năng quản lý kho hàng, xem lịch sử đơn hàng, xem chi tiết giao dịch, trang quản lý tài khoản người dùng</t>
   </si>
 </sst>
 </file>
@@ -444,27 +459,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6112F944-2302-4AFB-A0B3-53B748C14FE8}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -487,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -506,11 +524,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -529,11 +544,47 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Báo cáo/Bảng phân chia công việc.xlsx
+++ b/Báo cáo/Bảng phân chia công việc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project01-Group01\Báo cáo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XboxGames\Báo cáo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02CAEAB-7585-4549-A96B-BA899E01262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E815AF5-17C9-4DD5-820B-3AF4A3A72774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1107D468-E569-42C3-83E7-9DEB19704F6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{1107D468-E569-42C3-83E7-9DEB19704F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Project01 - group01</t>
   </si>
@@ -104,10 +104,64 @@
     <t>web user</t>
   </si>
   <si>
-    <t>Gồm trang chủ hiển thị thông tin shop, danh mục mua sắm, chi tiết sản phẩm, giỏ hàng, trang thanh toán, lịch sử mua hàng, trang đăng nhập đăng ký</t>
-  </si>
-  <si>
-    <t>Gồm các chức năng quản lý kho hàng, xem lịch sử đơn hàng, xem chi tiết giao dịch, trang quản lý tài khoản người dùng</t>
+    <t>Quản lý kho hàng</t>
+  </si>
+  <si>
+    <t>Trang chủ hiển thị thông tin shop</t>
+  </si>
+  <si>
+    <t>Danh mục mua sắm</t>
+  </si>
+  <si>
+    <t>Giỏ hàng</t>
+  </si>
+  <si>
+    <t>Trang thanh toán</t>
+  </si>
+  <si>
+    <t>Lịch sử mua hàng</t>
+  </si>
+  <si>
+    <t>Trang đăng nhập đăng ký</t>
+  </si>
+  <si>
+    <t>Cho admin, thêm xóa sửa các sản phẩm theo danh mục</t>
+  </si>
+  <si>
+    <t>Gồm các chức năng quản lý kho hàng, xem lịch sử giao dịch, trang quản lý tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>Xem lịch sử giao dịch</t>
+  </si>
+  <si>
+    <t>Cho admin, xem và xóa lịch sử</t>
+  </si>
+  <si>
+    <t>Trang quản lý tài khoản admin</t>
+  </si>
+  <si>
+    <t>Cho admin, thêm xóa sửa tài khoản admin</t>
+  </si>
+  <si>
+    <t>Hiển thị các sản phẩm đang active</t>
+  </si>
+  <si>
+    <t>Hiển thị sản phẩm theo danh mục, cho phép người dùng thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Gồm trang chủ hiển thị thông tin shop, danh mục mua sắm, giỏ hàng, trang thanh toán, lịch sử mua hàng, trang đăng nhập đăng ký</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng thêm xóa xửa sản phẩm đã thêm vào giỏ</t>
+  </si>
+  <si>
+    <t>Cho người dùng nhập thông tin giao hàng và thanh toán</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng xem lịch sử các sản phẩm đã mua</t>
+  </si>
+  <si>
+    <t>Cho người dùng đăng kí, đăng nhập vào để mua hàng</t>
   </si>
 </sst>
 </file>
@@ -459,30 +513,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6112F944-2302-4AFB-A0B3-53B748C14FE8}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -505,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -525,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -545,12 +600,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>1</v>
       </c>
@@ -561,7 +616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>1</v>
       </c>
@@ -569,10 +624,10 @@
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>2</v>
       </c>
@@ -580,7 +635,122 @@
         <v>21</v>
       </c>
       <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/Bảng phân chia công việc.xlsx
+++ b/Báo cáo/Bảng phân chia công việc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XboxGames\Báo cáo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project01-Group01\Báo cáo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E815AF5-17C9-4DD5-820B-3AF4A3A72774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B684D128-5257-4FBE-B30F-8FECDAC5690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{1107D468-E569-42C3-83E7-9DEB19704F6D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{1107D468-E569-42C3-83E7-9DEB19704F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Project01 - group01</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Trang đăng nhập đăng ký</t>
   </si>
   <si>
-    <t>Cho admin, thêm xóa sửa các sản phẩm theo danh mục</t>
-  </si>
-  <si>
     <t>Gồm các chức năng quản lý kho hàng, xem lịch sử giao dịch, trang quản lý tài khoản người dùng</t>
   </si>
   <si>
@@ -162,6 +159,36 @@
   </si>
   <si>
     <t>Cho người dùng đăng kí, đăng nhập vào để mua hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cho admin, thêm xóa sửa các sản phẩm </t>
+  </si>
+  <si>
+    <t>Quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Cho admin thêm xóa sửa các danh mục</t>
+  </si>
+  <si>
+    <t>27/06/2023</t>
+  </si>
+  <si>
+    <t>Tìm hiểu react js + redux + antd + react router dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu spring boot + restApi + mysql + entity framework (spring data jpa) </t>
+  </si>
+  <si>
+    <t>Thiết kế UI cho trang admin</t>
+  </si>
+  <si>
+    <t>Viết api cho trang admin</t>
+  </si>
+  <si>
+    <t>Trang dashboard cho admin(danh mục, home, products,user)</t>
+  </si>
+  <si>
+    <t>api(CRUD danh mục, CRUD sản phẩm, CRUD tài khoản)</t>
   </si>
 </sst>
 </file>
@@ -197,8 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,31 +543,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6112F944-2302-4AFB-A0B3-53B748C14FE8}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -560,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -580,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -600,12 +630,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45023</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" t="s">
         <v>1</v>
       </c>
@@ -616,7 +676,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
       <c r="H7">
         <v>1</v>
       </c>
@@ -624,10 +702,28 @@
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45053</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
       <c r="H8">
         <v>2</v>
       </c>
@@ -635,15 +731,15 @@
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>1</v>
       </c>
@@ -654,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>1</v>
       </c>
@@ -662,32 +758,32 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>4</v>
       </c>
@@ -695,10 +791,10 @@
         <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>5</v>
       </c>
@@ -706,10 +802,10 @@
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>6</v>
       </c>
@@ -717,10 +813,10 @@
         <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>7</v>
       </c>
@@ -728,10 +824,10 @@
         <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>8</v>
       </c>
@@ -739,10 +835,10 @@
         <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>9</v>
       </c>
@@ -750,7 +846,18 @@
         <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
